--- a/docs/仕事の進め方チェックシート.xlsx
+++ b/docs/仕事の進め方チェックシート.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyDocument\Work\git\Knowledge\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyDocument\Work\Git\Knowledge\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F09464B-34AE-4F0E-9F34-81EA9DFB4BDF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A50DBF4F-FE55-4EBD-BEBA-B5895732960F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12528" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="チェックシート" sheetId="5" r:id="rId1"/>
@@ -35,21 +35,21 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="Kojima Yusuke(小島優介) - 個人用ビュー" guid="{7B1C19F2-0A73-4EEE-A381-B76137EAB3A5}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1552" windowHeight="840" activeSheetId="4"/>
+    <customWorkbookView name="Tsuzuki Takuma(都築卓馬) - 個人用ビュー" guid="{ED1C0E07-DC45-4DA0-8A77-03EBBAD5D0B4}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="4"/>
+    <customWorkbookView name="haya_taku - 個人用ビュー" guid="{5472DA71-559A-489A-8E8F-A0595DF12B5C}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1742" windowHeight="1011" activeSheetId="4"/>
+    <customWorkbookView name="oka_shige - 個人用ビュー" guid="{0F8F2E81-BA9C-4C94-BDAE-10807E8AD20E}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1920" windowHeight="948" activeSheetId="4"/>
+    <customWorkbookView name="yasui - 個人用ビュー" guid="{7E6DD1E9-51BE-4D29-A373-628A81839134}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1397" windowHeight="943" activeSheetId="4"/>
+    <customWorkbookView name="小川 崇 - 個人用ビュー" guid="{688FB249-AB1A-4ADD-AE3F-15D48AA9B62A}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1619" windowHeight="764" activeSheetId="4"/>
+    <customWorkbookView name="yama_ko - 個人用ビュー" guid="{000EC13A-0780-41D2-8EBA-776D6F5477D4}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1920" windowHeight="982" activeSheetId="4"/>
+    <customWorkbookView name="ishida_h - 個人用ビュー" guid="{E2C0BFBC-CEBC-428E-8973-984BA595FBBA}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1600" windowHeight="948" activeSheetId="4" showComments="commIndAndComment"/>
+    <customWorkbookView name="Osamu Yamashita - 個人用ビュー" guid="{F1A69B1A-097B-4230-B73F-3B188CF5BDDD}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1920" windowHeight="912" activeSheetId="4"/>
+    <customWorkbookView name="meka_sa - 個人用ビュー" guid="{1BA30956-B2D3-40CF-AB63-15323E45152A}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1452" windowHeight="737" activeSheetId="4"/>
+    <customWorkbookView name="mino_hi - 個人用ビュー" guid="{929460F7-AF5C-42A1-85C1-6952A26948B3}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1920" windowHeight="978" activeSheetId="4"/>
+    <customWorkbookView name="Dcinc - 個人用ビュー" guid="{D64D229A-D6B1-48E7-A646-0AEBB4A06950}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1920" windowHeight="952" activeSheetId="4"/>
+    <customWorkbookView name="masa_etsu - 個人用ビュー" guid="{82DD9098-34FB-482E-80BC-9803646FD4F0}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1695" windowHeight="928" activeSheetId="4"/>
+    <customWorkbookView name="kojima_y - 個人用ビュー" guid="{830A4CB3-CE9A-42A0-8D73-AE1E9A26B991}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1916" windowHeight="948" activeSheetId="2"/>
     <customWorkbookView name="Niimi Makoto(新美真) - 個人用ビュー" guid="{33E17510-EEA8-407D-BEE9-C4763E60DB6F}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="754" activeSheetId="4"/>
-    <customWorkbookView name="kojima_y - 個人用ビュー" guid="{830A4CB3-CE9A-42A0-8D73-AE1E9A26B991}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1916" windowHeight="948" activeSheetId="2"/>
-    <customWorkbookView name="masa_etsu - 個人用ビュー" guid="{82DD9098-34FB-482E-80BC-9803646FD4F0}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1695" windowHeight="928" activeSheetId="4"/>
-    <customWorkbookView name="Dcinc - 個人用ビュー" guid="{D64D229A-D6B1-48E7-A646-0AEBB4A06950}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1920" windowHeight="952" activeSheetId="4"/>
-    <customWorkbookView name="mino_hi - 個人用ビュー" guid="{929460F7-AF5C-42A1-85C1-6952A26948B3}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1920" windowHeight="978" activeSheetId="4"/>
-    <customWorkbookView name="meka_sa - 個人用ビュー" guid="{1BA30956-B2D3-40CF-AB63-15323E45152A}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1452" windowHeight="737" activeSheetId="4"/>
-    <customWorkbookView name="Osamu Yamashita - 個人用ビュー" guid="{F1A69B1A-097B-4230-B73F-3B188CF5BDDD}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1920" windowHeight="912" activeSheetId="4"/>
-    <customWorkbookView name="ishida_h - 個人用ビュー" guid="{E2C0BFBC-CEBC-428E-8973-984BA595FBBA}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1600" windowHeight="948" activeSheetId="4" showComments="commIndAndComment"/>
-    <customWorkbookView name="yama_ko - 個人用ビュー" guid="{000EC13A-0780-41D2-8EBA-776D6F5477D4}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1920" windowHeight="982" activeSheetId="4"/>
-    <customWorkbookView name="小川 崇 - 個人用ビュー" guid="{688FB249-AB1A-4ADD-AE3F-15D48AA9B62A}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1619" windowHeight="764" activeSheetId="4"/>
-    <customWorkbookView name="yasui - 個人用ビュー" guid="{7E6DD1E9-51BE-4D29-A373-628A81839134}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1397" windowHeight="943" activeSheetId="4"/>
-    <customWorkbookView name="oka_shige - 個人用ビュー" guid="{0F8F2E81-BA9C-4C94-BDAE-10807E8AD20E}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1920" windowHeight="948" activeSheetId="4"/>
-    <customWorkbookView name="haya_taku - 個人用ビュー" guid="{5472DA71-559A-489A-8E8F-A0595DF12B5C}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1742" windowHeight="1011" activeSheetId="4"/>
-    <customWorkbookView name="Tsuzuki Takuma(都築卓馬) - 個人用ビュー" guid="{ED1C0E07-DC45-4DA0-8A77-03EBBAD5D0B4}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="4"/>
-    <customWorkbookView name="Kojima Yusuke(小島優介) - 個人用ビュー" guid="{7B1C19F2-0A73-4EEE-A381-B76137EAB3A5}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1552" windowHeight="840" activeSheetId="4"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -224,31 +224,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>時間がかかり手戻りリスクがあるタスクは、独断で進めず、事前に識者と進め方を相談している。</t>
-    <rPh sb="0" eb="2">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>テ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ジゼン</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>スス</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>カタ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>ソウダン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>品質の意識</t>
     <rPh sb="0" eb="2">
       <t>ヒンシツ</t>
@@ -492,43 +467,6 @@
   </si>
   <si>
     <t>×</t>
-  </si>
-  <si>
-    <t>・1つの不具合の修正に対して、10時間以上かけて実装したが、そもそも修正方針が間違っていたため、最初からやり直しとなった。</t>
-    <rPh sb="4" eb="7">
-      <t>フグアイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>タイ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ジッソウ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>ホウシン</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>マチガ</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>サイショ</t>
-    </rPh>
-    <rPh sb="54" eb="55">
-      <t>ナオ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>・レビュー指摘の修正時に、類似の問題が他にないか横展開調査をしないため、何度も差し戻しが発生した。</t>
@@ -630,20 +568,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・タスクを進めているうちに、いつのまにか本来の目的を忘れてしまい、目的を達成できない成果を作ってしまった。
-・テスト仕様書を作成する際に、該当のテストケースがどんな不具合を除去する目的なのかを考えずに作成したため、目的の不具合が除去できないテスト実施手順になってしまった。</t>
-    <rPh sb="90" eb="92">
-      <t>モクテキ</t>
-    </rPh>
-    <rPh sb="123" eb="125">
-      <t>ジッシ</t>
-    </rPh>
-    <rPh sb="125" eb="127">
-      <t>テジュン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・分担して同時に複数人でテスト実施する際に、ある参照ドキュメントの不備が原因で、テスト実施につまずき無駄な時間がかかる問題があった。その問題は、テスト実施者全員が遭遇する可能性が高いため、情報を共有すべきであった。しかし、その情報はテスト実施者間で共有されず、全員同じ問題で無駄な時間を費やしてしまった。</t>
     <rPh sb="1" eb="3">
       <t>ブンタン</t>
@@ -827,6 +751,125 @@
   </si>
   <si>
     <t>そのような機会がない</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・新機能追加のプログラミングのタスクにて、仕様変更を何度かしているうちに、いつのまにかその新機能の目的を忘れてしまい、目的を達成できない(ユーザーに嬉しさのない)新機能を作ってしまった。
+・テスト仕様書を作成する際に、該当のテストケースでどんな不具合を除去すべきか考えずに作成したため、目的の不具合が除去できないテストケースを作ってしまった。</t>
+    <rPh sb="1" eb="4">
+      <t>シンキノウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ナンド</t>
+    </rPh>
+    <rPh sb="45" eb="48">
+      <t>シンキノウ</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>ウレ</t>
+    </rPh>
+    <rPh sb="81" eb="84">
+      <t>シンキノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大きな手戻りのリスクがあるタスクは、独断で進めず、事前に識者と進め方を相談している。</t>
+    <rPh sb="0" eb="1">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ジゼン</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>スス</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ソウダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・1つの不具合の修正に対して、丸一日かけて直したが、そもそも修正方針が適切でないため、最初からやり直しとなった。
+・外部仕様書を3日間かけて作成する際に、作成中に疑問点や判断に迷う点がいくつもあったが、それを事前に相談せずに一通り作り切るまで相談しなかったため、大きな手戻りになった。</t>
+    <rPh sb="58" eb="60">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="60" eb="63">
+      <t>シヨウショ</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="81" eb="84">
+      <t>ギモンテン</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>ハンダン</t>
+    </rPh>
+    <rPh sb="88" eb="89">
+      <t>マヨ</t>
+    </rPh>
+    <rPh sb="90" eb="91">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="104" eb="106">
+      <t>ジゼン</t>
+    </rPh>
+    <rPh sb="107" eb="109">
+      <t>ソウダン</t>
+    </rPh>
+    <rPh sb="112" eb="114">
+      <t>ヒトトオ</t>
+    </rPh>
+    <rPh sb="115" eb="116">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="117" eb="118">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="121" eb="123">
+      <t>ソウダン</t>
+    </rPh>
+    <rPh sb="131" eb="132">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="134" eb="136">
+      <t>テモド</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -983,7 +1026,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -993,19 +1036,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1020,22 +1054,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1048,9 +1076,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1073,9 +1098,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1113,9 +1138,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1148,26 +1173,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1200,26 +1208,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1399,376 +1390,366 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="3.77734375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="42.109375" style="6" customWidth="1"/>
-    <col min="5" max="5" width="67.88671875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="7.109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="9.44140625" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="6"/>
+    <col min="1" max="1" width="3.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="3.77734375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="42.109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="67.88671875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="7.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="9.44140625" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
-        <v>29</v>
+      <c r="A1" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
+      <c r="B2" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B3" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
+      <c r="B3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="I4" s="20" t="s">
-        <v>42</v>
-      </c>
     </row>
-    <row r="5" spans="1:9" ht="66" x14ac:dyDescent="0.2">
-      <c r="B5" s="15">
+    <row r="5" spans="1:9" ht="79.2" x14ac:dyDescent="0.2">
+      <c r="B5" s="11">
         <f t="shared" ref="B5:B11" si="0">ROW()-ROW(B$4)</f>
         <v>1</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="18" t="s">
+      <c r="C5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="19" t="s">
-        <v>44</v>
+      <c r="E5" s="14" t="s">
+        <v>48</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="I5" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="B6" s="15">
+      <c r="B6" s="11">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="18" t="s">
+      <c r="C6" s="8"/>
+      <c r="D6" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="19" t="s">
-        <v>23</v>
+      <c r="E6" s="14" t="s">
+        <v>22</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="66" x14ac:dyDescent="0.2">
-      <c r="B7" s="15">
+      <c r="B7" s="11">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="18" t="s">
+      <c r="C7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="3" t="s">
+      <c r="E7" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="I7" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="B8" s="15">
+    <row r="8" spans="1:9" ht="66" x14ac:dyDescent="0.2">
+      <c r="B8" s="11">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="3" t="s">
+      <c r="C8" s="8"/>
+      <c r="D8" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="B9" s="15">
+      <c r="B9" s="11">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" s="3" t="s">
+      <c r="C9" s="9"/>
+      <c r="D9" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="I9" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="B10" s="16">
+      <c r="B10" s="11">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C10" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="3" t="s">
+      <c r="C10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="I10" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="B11" s="15">
+      <c r="B11" s="11">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C11" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="18" t="s">
+      <c r="C11" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="3" t="s">
+      <c r="E11" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="5"/>
-      <c r="F14" s="20" t="s">
+      <c r="C14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G14" s="7">
         <f t="shared" ref="G14:I17" si="1">COUNTIF(G$5:G$11, $F14)</f>
         <v>7</v>
       </c>
-      <c r="H14" s="10">
+      <c r="H14" s="7">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="I14" s="10">
+      <c r="I14" s="7">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="5"/>
-      <c r="F15" s="20" t="s">
+      <c r="C15" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G15" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H15" s="10">
+      <c r="H15" s="7">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="I15" s="10">
+      <c r="I15" s="7">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="5"/>
-      <c r="F16" s="20" t="s">
+      <c r="C16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G16" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H16" s="10">
+      <c r="H16" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I16" s="10">
+      <c r="I16" s="7">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" s="5"/>
-      <c r="F17" s="20" t="s">
+      <c r="C17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G17" s="10">
+      <c r="G17" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H17" s="10">
+      <c r="H17" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I17" s="10">
+      <c r="I17" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="F18" s="20" t="s">
+      <c r="F18" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="14">
-        <f t="shared" ref="G18:I18" si="2">(G14+G15*0.5)/SUM(G14:G16)</f>
+      <c r="G18" s="10">
+        <f t="shared" ref="G18" si="2">(G14+G15*0.5)/SUM(G14:G16)</f>
         <v>1</v>
       </c>
-      <c r="H18" s="14">
+      <c r="H18" s="10">
         <f>(H14+H15*0.5)/SUM(H14:H16)</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="I18" s="14">
+      <c r="I18" s="10">
         <f t="shared" ref="I18" si="3">(I14+I15*0.5)/SUM(I14:I16)</f>
         <v>0.5</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="3" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/仕事の進め方チェックシート.xlsx
+++ b/docs/仕事の進め方チェックシート.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyDocument\Work\Git\Knowledge\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A50DBF4F-FE55-4EBD-BEBA-B5895732960F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{625FAF63-FA1F-4A29-827F-ADF408D89B5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -754,35 +754,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・新機能追加のプログラミングのタスクにて、仕様変更を何度かしているうちに、いつのまにかその新機能の目的を忘れてしまい、目的を達成できない(ユーザーに嬉しさのない)新機能を作ってしまった。
-・テスト仕様書を作成する際に、該当のテストケースでどんな不具合を除去すべきか考えずに作成したため、目的の不具合が除去できないテストケースを作ってしまった。</t>
-    <rPh sb="1" eb="4">
-      <t>シンキノウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ナンド</t>
-    </rPh>
-    <rPh sb="45" eb="48">
-      <t>シンキノウ</t>
-    </rPh>
-    <rPh sb="74" eb="75">
-      <t>ウレ</t>
-    </rPh>
-    <rPh sb="81" eb="84">
-      <t>シンキノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>大きな手戻りのリスクがあるタスクは、独断で進めず、事前に識者と進め方を相談している。</t>
     <rPh sb="0" eb="1">
       <t>オオ</t>
@@ -808,67 +779,39 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・1つの不具合の修正に対して、丸一日かけて直したが、そもそも修正方針が適切でないため、最初からやり直しとなった。
-・外部仕様書を3日間かけて作成する際に、作成中に疑問点や判断に迷う点がいくつもあったが、それを事前に相談せずに一通り作り切るまで相談しなかったため、大きな手戻りになった。</t>
-    <rPh sb="58" eb="60">
-      <t>ガイブ</t>
-    </rPh>
-    <rPh sb="60" eb="63">
-      <t>シヨウショ</t>
-    </rPh>
-    <rPh sb="65" eb="66">
-      <t>ニチ</t>
-    </rPh>
-    <rPh sb="66" eb="67">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="70" eb="72">
-      <t>サクセイ</t>
+    <t>・新機能追加のプログラミングのタスクにて、仕様変更を何度かしているうちに、いつのまにかその新機能の目的を忘れてしまい、目的を達成できない(ユーザーに嬉しさのない)新機能を作ってしまった。
+・テスト仕様書を作成する際に、該当のテストケースでどんな不具合を検出すべきか考えずに作成したため、不具合を検出しきれないテスト仕様書になってしまった。</t>
+    <rPh sb="1" eb="4">
+      <t>シンキノウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ナンド</t>
+    </rPh>
+    <rPh sb="45" eb="48">
+      <t>シンキノウ</t>
     </rPh>
     <rPh sb="74" eb="75">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="77" eb="79">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="79" eb="80">
-      <t>チュウ</t>
+      <t>ウレ</t>
     </rPh>
     <rPh sb="81" eb="84">
-      <t>ギモンテン</t>
-    </rPh>
-    <rPh sb="85" eb="87">
-      <t>ハンダン</t>
-    </rPh>
-    <rPh sb="88" eb="89">
-      <t>マヨ</t>
-    </rPh>
-    <rPh sb="90" eb="91">
-      <t>テン</t>
-    </rPh>
-    <rPh sb="104" eb="106">
-      <t>ジゼン</t>
-    </rPh>
-    <rPh sb="107" eb="109">
-      <t>ソウダン</t>
-    </rPh>
-    <rPh sb="112" eb="114">
-      <t>ヒトトオ</t>
-    </rPh>
-    <rPh sb="115" eb="116">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="117" eb="118">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="121" eb="123">
-      <t>ソウダン</t>
-    </rPh>
-    <rPh sb="131" eb="132">
-      <t>オオ</t>
-    </rPh>
-    <rPh sb="134" eb="136">
-      <t>テモド</t>
+      <t>シンキノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・1つの不具合の修正に対して、丸一日かけて直したが、設計が適切でないため、最初からやり直しとなった。
+・外部仕様書を3日間かけて作成する際に、疑問点や判断に迷う点がいくつもあったが、一通り作り切るまで相談しなかったため、大きな手戻りになった。</t>
+    <rPh sb="26" eb="28">
+      <t>セッケイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1390,7 +1333,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1460,7 +1403,7 @@
         <v>13</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>17</v>
@@ -1527,14 +1470,14 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="66" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B8" s="11">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E8" s="14" t="s">
         <v>50</v>
